--- a/data/Game/Job.xlsx
+++ b/data/Game/Job.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C95D4-2E7F-40DA-A104-9140EECDAB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCAF9BA-3B7F-4EBF-86B6-A08736AA0069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="3600" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Job" sheetId="1" r:id="rId1"/>
@@ -292,9 +292,15 @@
     <t>cung thủ</t>
   </si>
   <si>
+    <t>pháp sư cận chiến</t>
+  </si>
+  <si>
     <t>khách du lịch</t>
   </si>
   <si>
+    <t>nghệ sĩ</t>
+  </si>
+  <si>
     <t>thần quan</t>
   </si>
   <si>
@@ -316,6 +322,12 @@
     <t>âm dương sư</t>
   </si>
   <si>
+    <t>dã thú</t>
+  </si>
+  <si>
+    <t>ngâm thi nhân</t>
+  </si>
+  <si>
     <t>nhà giả kim</t>
   </si>
   <si>
@@ -368,18 +380,6 @@
   </si>
   <si>
     <t>Âm dương sư là những nhà tu luyện tinh thần đi lại giữa thế giới linh hồn và cõi trần, sở hữu sức mạnh xua đuổi ma quỷ. Họ khéo léo sử dụng thuật chú và bói toán, học cách phong ấn ma lực vào bùa chú để tăng cường sức mạnh cho vũ khí.</t>
-  </si>
-  <si>
-    <t>pháp sư cận chiến</t>
-  </si>
-  <si>
-    <t>nghệ sĩ</t>
-  </si>
-  <si>
-    <t>dã thú</t>
-  </si>
-  <si>
-    <t>ngâm thi nhân</t>
   </si>
 </sst>
 </file>
@@ -741,15 +741,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -801,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -818,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -827,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -853,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -870,7 +870,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -896,7 +896,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -905,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -913,7 +913,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -922,7 +922,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -931,7 +931,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -939,7 +939,7 @@
         <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -948,7 +948,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
@@ -957,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -965,7 +965,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
@@ -974,7 +974,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
         <v>38</v>
@@ -983,7 +983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -991,7 +991,7 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
@@ -1000,7 +1000,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -1009,7 +1009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
@@ -1026,7 +1026,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1035,7 +1035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1052,7 +1052,7 @@
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -1061,7 +1061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>52</v>
@@ -1078,7 +1078,7 @@
         <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>54</v>
@@ -1087,7 +1087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -1104,7 +1104,7 @@
         <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
@@ -1113,7 +1113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -1130,7 +1130,7 @@
         <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
         <v>62</v>
@@ -1139,7 +1139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>65</v>
@@ -1156,7 +1156,7 @@
         <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G17" t="s">
         <v>67</v>
@@ -1165,7 +1165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -1182,7 +1182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -1199,7 +1199,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>73</v>
@@ -1216,7 +1216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
@@ -1233,7 +1233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>

--- a/data/Game/Job.xlsx
+++ b/data/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>
